--- a/virtualization/docs/resource_allocation_audit.xlsx
+++ b/virtualization/docs/resource_allocation_audit.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vespe\source\repos\SQLServer_VENV\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vespe\source\repos\SQLServer_VENV\virtualization\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF896A6D-9588-4BED-A392-FDE0F454F469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FDA84F-2E1B-474D-8AF0-45CA23BF8B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29625" yWindow="3675" windowWidth="21165" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8004" yWindow="0" windowWidth="14832" windowHeight="12336" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hypervisor Host" sheetId="1" r:id="rId1"/>
     <sheet name="VM Planning" sheetId="3" r:id="rId2"/>
     <sheet name="VM Setup Checklist" sheetId="5" r:id="rId3"/>
     <sheet name="VM Disk Usage Tracker" sheetId="4" r:id="rId4"/>
+    <sheet name="VM_Static_IP_Plan" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="147">
   <si>
     <t>Parameter</t>
   </si>
@@ -422,12 +423,93 @@
   <si>
     <t>Order</t>
   </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Number of Processors</t>
+  </si>
+  <si>
+    <t>Cores per Processor</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Subnet Mask</t>
+  </si>
+  <si>
+    <t>Default Gateway</t>
+  </si>
+  <si>
+    <t>Preferred DNS</t>
+  </si>
+  <si>
+    <t>Alternate DNS</t>
+  </si>
+  <si>
+    <t>DNS, domain controller</t>
+  </si>
+  <si>
+    <t>192.168.100.10</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>192.168.100.1</t>
+  </si>
+  <si>
+    <t>8.8.8.8</t>
+  </si>
+  <si>
+    <t>Centralized file server</t>
+  </si>
+  <si>
+    <t>192.168.100.20</t>
+  </si>
+  <si>
+    <t>SQL Server for dev</t>
+  </si>
+  <si>
+    <t>192.168.100.30</t>
+  </si>
+  <si>
+    <t>Web/API dev server</t>
+  </si>
+  <si>
+    <t>192.168.100.40</t>
+  </si>
+  <si>
+    <t>SQL Server for staging</t>
+  </si>
+  <si>
+    <t>192.168.100.31</t>
+  </si>
+  <si>
+    <t>Web/API staging server</t>
+  </si>
+  <si>
+    <t>192.168.100.41</t>
+  </si>
+  <si>
+    <t>SQL Server for prod</t>
+  </si>
+  <si>
+    <t>192.168.100.32</t>
+  </si>
+  <si>
+    <t>Web/API prod server</t>
+  </si>
+  <si>
+    <t>192.168.100.42</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +544,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -699,12 +787,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ADBA6417-7343-4496-ACFB-E42E8AE71E9F}" name="Table2" displayName="Table2" ref="A1:H9" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:H9" xr:uid="{ADBA6417-7343-4496-ACFB-E42E8AE71E9F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ADBA6417-7343-4496-ACFB-E42E8AE71E9F}" name="Table2" displayName="Table2" ref="A1:K9" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:K9" xr:uid="{ADBA6417-7343-4496-ACFB-E42E8AE71E9F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K9">
     <sortCondition ref="A1:A9"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{3B220EC9-B73D-4A1A-8DE2-EC6A14620E2B}" name="Order"/>
     <tableColumn id="8" xr3:uid="{B9CBBE0A-57D2-4134-BA0D-E6FEB704D416}" name="VM Name"/>
     <tableColumn id="2" xr3:uid="{2AFAA6AE-BE63-4917-993C-1DDBAAB12415}" name="Purpose"/>
@@ -712,6 +800,9 @@
     <tableColumn id="4" xr3:uid="{46DB2DAE-2AFA-4615-A3AF-0AFB0DA13AD8}" name="vCPUs"/>
     <tableColumn id="5" xr3:uid="{4D3B7CC5-639B-47F1-949A-D6568F0F9547}" name="RAM (GB)"/>
     <tableColumn id="6" xr3:uid="{A4EF9494-C379-4F25-A4A6-1D55A130D33D}" name="Storage (GB)"/>
+    <tableColumn id="9" xr3:uid="{48006E46-192A-4E88-BC55-5F97AC776207}" name="Memory"/>
+    <tableColumn id="10" xr3:uid="{BC303CDD-D5CD-4460-801F-AEA715A96C9A}" name="Number of Processors"/>
+    <tableColumn id="11" xr3:uid="{B30CA70E-55BC-422A-8A2D-8882C5807B8F}" name="Cores per Processor"/>
     <tableColumn id="7" xr3:uid="{5F10C257-9E8C-4320-895F-FCCA99FD5C5A}" name="Org"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1372,25 +1463,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06559765-6229-472B-A7F9-99A753161666}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="44.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>119</v>
       </c>
@@ -1413,10 +1507,19 @@
         <v>73</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1438,11 +1541,20 @@
       <c r="G2">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>4096</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1464,11 +1576,20 @@
       <c r="G3">
         <v>100</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>2048</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1490,11 +1611,20 @@
       <c r="G4">
         <v>150</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>12288</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1516,11 +1646,20 @@
       <c r="G5">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>4096</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1542,11 +1681,20 @@
       <c r="G6">
         <v>150</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>12288</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1568,11 +1716,20 @@
       <c r="G7">
         <v>40</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>4096</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1594,11 +1751,20 @@
       <c r="G8">
         <v>150</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>12288</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1620,11 +1786,20 @@
       <c r="G9">
         <v>40</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>4096</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>96</v>
       </c>
@@ -1642,6 +1817,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2129,4 +2305,235 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF75E6C-1656-42C6-8D3F-953141DE75B1}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>